--- a/aivd_2017/teaser.xlsx
+++ b/aivd_2017/teaser.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVEHAA\Documents\GitHub\puzzles\aivd2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVEHAA\Documents\GitHub\puzzles\aivd_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NL out-in" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="66">
   <si>
     <t>RR</t>
   </si>
@@ -190,6 +190,42 @@
   <si>
     <t>f</t>
   </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>BBR</t>
+  </si>
+  <si>
+    <t>BRR</t>
+  </si>
+  <si>
+    <t>RGR</t>
+  </si>
+  <si>
+    <t>RRG</t>
+  </si>
+  <si>
+    <t>GRG</t>
+  </si>
+  <si>
+    <t>BGG</t>
+  </si>
 </sst>
 </file>
 
@@ -249,13 +285,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -296,6 +325,13 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3791,10 +3827,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AU26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="AW1" sqref="AW1:AX26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,7 +3846,7 @@
     <col min="28" max="38" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -3846,43 +3882,43 @@
         <v>35</v>
       </c>
       <c r="Q1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="Q1:Q17" si="1">IFERROR(VLOOKUP(A1, $N$1:$O$20, 2, FALSE), "")</f>
         <v/>
       </c>
       <c r="R1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="R1:R17" si="2">IFERROR(VLOOKUP(B1, $N$1:$O$20, 2, FALSE), "")</f>
         <v/>
       </c>
       <c r="S1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="S1:S17" si="3">IFERROR(VLOOKUP(C1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>e</v>
       </c>
       <c r="T1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="T1:T17" si="4">IFERROR(VLOOKUP(D1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>d</v>
       </c>
       <c r="U1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="U1:U17" si="5">IFERROR(VLOOKUP(E1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>n</v>
       </c>
       <c r="V1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="V1:V17" si="6">IFERROR(VLOOKUP(F1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>e</v>
       </c>
       <c r="W1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="W1:W17" si="7">IFERROR(VLOOKUP(G1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>g</v>
       </c>
       <c r="X1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="X1:X17" si="8">IFERROR(VLOOKUP(H1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>l</v>
       </c>
       <c r="Y1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="Y1:Y17" si="9">IFERROR(VLOOKUP(I1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>o</v>
       </c>
       <c r="Z1" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J1, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" ref="Z1:Z17" si="10">IFERROR(VLOOKUP(J1, $N$1:$O$20, 2, FALSE), "")</f>
         <v>v</v>
       </c>
       <c r="AA1" s="4" t="s">
@@ -3893,43 +3929,65 @@
         <v>v</v>
       </c>
       <c r="AD1" s="2" t="str">
-        <f t="shared" ref="AD1:AL16" si="1">INDEX($Q1:$Z1, COLUMN($AL1)-COLUMN(AD1)+1)</f>
+        <f t="shared" ref="AD1:AL16" si="11">INDEX($Q1:$Z1, COLUMN($AL1)-COLUMN(AD1)+1)</f>
         <v>o</v>
       </c>
       <c r="AE1" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>l</v>
       </c>
       <c r="AF1" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>g</v>
       </c>
       <c r="AG1" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AH1" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>n</v>
       </c>
       <c r="AI1" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>d</v>
       </c>
       <c r="AJ1" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AK1" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL1" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN1">
+        <v>1</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" t="str">
+        <f>INDEX($N$1:$N$20, MATCH(AO1, $O$1:$O$20, 0))</f>
+        <v>B</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f>AP1</f>
+        <v>B</v>
+      </c>
+      <c r="AT1" t="str">
+        <f>MID(AQ1,2,1)</f>
+        <v/>
+      </c>
+      <c r="AU1" t="str">
+        <f t="shared" ref="AU1:AU26" si="12">RIGHT(AQ1, 1)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>8</v>
       </c>
@@ -3959,87 +4017,109 @@
         <v>45</v>
       </c>
       <c r="Q2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v>r</v>
       </c>
       <c r="V2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v>e</v>
       </c>
       <c r="W2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>s</v>
       </c>
       <c r="X2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>a</v>
       </c>
       <c r="Y2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>e</v>
       </c>
       <c r="Z2" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J2, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>t</v>
       </c>
       <c r="AC2" s="2" t="str">
-        <f t="shared" ref="AC2:AL17" si="2">INDEX($Q2:$Z2, COLUMN($AL2)-COLUMN(AC2)+1)</f>
+        <f t="shared" ref="AC2:AL17" si="13">INDEX($Q2:$Z2, COLUMN($AL2)-COLUMN(AC2)+1)</f>
         <v>t</v>
       </c>
       <c r="AD2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AE2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>a</v>
       </c>
       <c r="AF2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>s</v>
       </c>
       <c r="AG2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AH2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>r</v>
       </c>
       <c r="AI2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK2" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL2" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN2">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" ref="AP2:AP26" si="14">INDEX($N$1:$N$20, MATCH(AO2, $O$1:$O$20, 0))</f>
+        <v>R</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" ref="AQ2:AQ22" si="15">AP2</f>
+        <v>R</v>
+      </c>
+      <c r="AT2" t="str">
+        <f t="shared" ref="AT2:AT26" si="16">MID(AQ2,2,1)</f>
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -4066,87 +4146,109 @@
         <v>51</v>
       </c>
       <c r="Q3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v>t</v>
       </c>
       <c r="W3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>f</v>
       </c>
       <c r="X3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>e</v>
       </c>
       <c r="Y3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>e</v>
       </c>
       <c r="Z3" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J3, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>g</v>
       </c>
       <c r="AC3" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>g</v>
       </c>
       <c r="AD3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AE3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AF3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="AG3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>t</v>
       </c>
       <c r="AH3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN3">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" t="str">
+        <f t="shared" si="14"/>
+        <v>G</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" si="15"/>
+        <v>G</v>
+      </c>
+      <c r="AT3" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AU3" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>0</v>
       </c>
@@ -4164,87 +4266,109 @@
         <v>47</v>
       </c>
       <c r="Q4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>e</v>
       </c>
       <c r="Z4" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J4, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>d</v>
       </c>
       <c r="AC4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>d</v>
       </c>
       <c r="AD4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AE4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP4" t="str">
+        <f t="shared" si="14"/>
+        <v>BR</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f t="shared" si="15"/>
+        <v>BR</v>
+      </c>
+      <c r="AT4" t="str">
+        <f>MID(AQ4,1,1)</f>
+        <v>B</v>
+      </c>
+      <c r="AU4" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -4277,87 +4401,109 @@
         <v>52</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v>e</v>
       </c>
       <c r="U5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v>i</v>
       </c>
       <c r="V5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v>t</v>
       </c>
       <c r="W5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="X5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>c</v>
       </c>
       <c r="Y5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>o</v>
       </c>
       <c r="Z5" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J5, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>l</v>
       </c>
       <c r="AC5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>l</v>
       </c>
       <c r="AD5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>o</v>
       </c>
       <c r="AE5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>c</v>
       </c>
       <c r="AF5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>a</v>
       </c>
       <c r="AG5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>t</v>
       </c>
       <c r="AH5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>i</v>
       </c>
       <c r="AI5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AJ5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP5" t="str">
+        <f t="shared" si="14"/>
+        <v>RR</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f t="shared" si="15"/>
+        <v>RR</v>
+      </c>
+      <c r="AT5" t="str">
+        <f>MID(AQ5,1,1)</f>
+        <v>R</v>
+      </c>
+      <c r="AU5" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>2</v>
       </c>
@@ -4378,87 +4524,109 @@
         <v>50</v>
       </c>
       <c r="Q6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>n</v>
       </c>
       <c r="Y6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>a</v>
       </c>
       <c r="Z6" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J6, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>v</v>
       </c>
       <c r="AC6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>v</v>
       </c>
       <c r="AD6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>a</v>
       </c>
       <c r="AE6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>n</v>
       </c>
       <c r="AF6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP6" t="str">
+        <f t="shared" si="14"/>
+        <v>GR</v>
+      </c>
+      <c r="AQ6" t="str">
+        <f t="shared" si="15"/>
+        <v>GR</v>
+      </c>
+      <c r="AT6" t="str">
+        <f>MID(AQ6,1,1)</f>
+        <v>G</v>
+      </c>
+      <c r="AU6" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>0</v>
       </c>
@@ -4476,90 +4644,112 @@
         <v>36</v>
       </c>
       <c r="Q7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>e</v>
       </c>
       <c r="Z7" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J7, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>d</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="AC7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>d</v>
       </c>
       <c r="AD7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AE7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP7" t="str">
+        <f t="shared" si="14"/>
+        <v>BG</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" si="15"/>
+        <v>BG</v>
+      </c>
+      <c r="AT7" t="str">
+        <f>MID(AQ7,1,1)</f>
+        <v>B</v>
+      </c>
+      <c r="AU7" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>7</v>
       </c>
@@ -4586,87 +4776,109 @@
         <v>28</v>
       </c>
       <c r="Q8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v>t</v>
       </c>
       <c r="W8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>s</v>
       </c>
       <c r="X8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>r</v>
       </c>
       <c r="Y8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>e</v>
       </c>
       <c r="Z8" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J8, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>k</v>
       </c>
       <c r="AC8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>k</v>
       </c>
       <c r="AD8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AE8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>r</v>
       </c>
       <c r="AF8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>s</v>
       </c>
       <c r="AG8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>t</v>
       </c>
       <c r="AH8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN8">
+        <v>2</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP8" t="str">
+        <f t="shared" si="14"/>
+        <v>RG</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="15"/>
+        <v>RG</v>
+      </c>
+      <c r="AT8" t="str">
+        <f>MID(AQ8,1,1)</f>
+        <v>R</v>
+      </c>
+      <c r="AU8" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -4696,90 +4908,112 @@
         <v>20</v>
       </c>
       <c r="Q9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v>l</v>
       </c>
       <c r="V9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v>e</v>
       </c>
       <c r="W9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>z</v>
       </c>
       <c r="X9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>z</v>
       </c>
       <c r="Y9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>u</v>
       </c>
       <c r="Z9" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J9, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>p</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AC9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>p</v>
       </c>
       <c r="AD9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>u</v>
       </c>
       <c r="AE9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>z</v>
       </c>
       <c r="AF9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>z</v>
       </c>
       <c r="AG9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AH9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>l</v>
       </c>
       <c r="AI9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN9">
+        <v>3</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP9" t="str">
+        <f t="shared" si="14"/>
+        <v>GG</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="15"/>
+        <v>GG</v>
+      </c>
+      <c r="AT9" t="str">
+        <f>MID(AQ9,1,1)</f>
+        <v>G</v>
+      </c>
+      <c r="AU9" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>8</v>
       </c>
@@ -4803,90 +5037,115 @@
         <v>46</v>
       </c>
       <c r="Q10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>r</v>
       </c>
       <c r="X10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>e</v>
       </c>
       <c r="Y10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>i</v>
       </c>
       <c r="Z10" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J10, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>v</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AC10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>v</v>
       </c>
       <c r="AD10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>i</v>
       </c>
       <c r="AE10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AF10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>r</v>
       </c>
       <c r="AG10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP10" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS10" t="str">
+        <f t="shared" ref="AS2:AS26" si="17">LEFT(AQ10, 1)</f>
+        <v>B</v>
+      </c>
+      <c r="AT10" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="AU10" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>8</v>
       </c>
@@ -4907,90 +5166,116 @@
         <v>23</v>
       </c>
       <c r="Q11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>r</v>
       </c>
       <c r="Y11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>u</v>
       </c>
       <c r="Z11" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J11, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>u</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AC11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>u</v>
       </c>
       <c r="AD11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>u</v>
       </c>
       <c r="AE11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>r</v>
       </c>
       <c r="AF11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP11" t="str">
+        <f t="shared" si="14"/>
+        <v>RBR</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="15"/>
+        <v>RBR</v>
+      </c>
+      <c r="AS11" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="AT11" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="AU11" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>8</v>
       </c>
@@ -5014,87 +5299,113 @@
         <v>21</v>
       </c>
       <c r="Q12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>r</v>
       </c>
       <c r="X12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>o</v>
       </c>
       <c r="Y12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>o</v>
       </c>
       <c r="Z12" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J12, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>v</v>
       </c>
       <c r="AC12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>v</v>
       </c>
       <c r="AD12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>o</v>
       </c>
       <c r="AE12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>o</v>
       </c>
       <c r="AF12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>r</v>
       </c>
       <c r="AG12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP12" t="str">
+        <f t="shared" si="14"/>
+        <v>GBR</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="15"/>
+        <v>GBR</v>
+      </c>
+      <c r="AS12" t="str">
+        <f t="shared" si="17"/>
+        <v>G</v>
+      </c>
+      <c r="AT12" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="AU12" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5136,90 +5447,115 @@
         <v>49</v>
       </c>
       <c r="Q13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>e</v>
       </c>
       <c r="R13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v>i</v>
       </c>
       <c r="S13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v>t</v>
       </c>
       <c r="T13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v>a</v>
       </c>
       <c r="U13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v>c</v>
       </c>
       <c r="V13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v>i</v>
       </c>
       <c r="W13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>l</v>
       </c>
       <c r="X13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>b</v>
       </c>
       <c r="Y13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>u</v>
       </c>
       <c r="Z13" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J13, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>p</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AC13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>p</v>
       </c>
       <c r="AD13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>u</v>
       </c>
       <c r="AE13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>b</v>
       </c>
       <c r="AF13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>l</v>
       </c>
       <c r="AG13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>i</v>
       </c>
       <c r="AH13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>c</v>
       </c>
       <c r="AI13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>a</v>
       </c>
       <c r="AJ13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>t</v>
       </c>
       <c r="AK13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>i</v>
       </c>
       <c r="AL13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>e</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP13" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS13" t="str">
+        <f t="shared" si="17"/>
+        <v>B</v>
+      </c>
+      <c r="AT13" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="AU13" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>8</v>
       </c>
@@ -5243,90 +5579,116 @@
         <v>30</v>
       </c>
       <c r="Q14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>r</v>
       </c>
       <c r="X14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>e</v>
       </c>
       <c r="Y14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>i</v>
       </c>
       <c r="Z14" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J14, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>h</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="AC14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>h</v>
       </c>
       <c r="AD14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>i</v>
       </c>
       <c r="AE14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AF14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>r</v>
       </c>
       <c r="AG14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP14" t="str">
+        <f t="shared" si="14"/>
+        <v>RRR</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="15"/>
+        <v>RRR</v>
+      </c>
+      <c r="AS14" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="AT14" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="AU14" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>7</v>
       </c>
@@ -5350,87 +5712,113 @@
         <v>53</v>
       </c>
       <c r="Q15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>t</v>
       </c>
       <c r="X15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>s</v>
       </c>
       <c r="Y15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>a</v>
       </c>
       <c r="Z15" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J15, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>v</v>
       </c>
       <c r="AC15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>v</v>
       </c>
       <c r="AD15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>a</v>
       </c>
       <c r="AE15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>s</v>
       </c>
       <c r="AF15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>t</v>
       </c>
       <c r="AG15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP15" t="str">
+        <f t="shared" si="14"/>
+        <v>GRR</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f t="shared" si="15"/>
+        <v>GRR</v>
+      </c>
+      <c r="AS15" t="str">
+        <f t="shared" si="17"/>
+        <v>G</v>
+      </c>
+      <c r="AT15" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="AU15" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>0</v>
       </c>
@@ -5448,87 +5836,113 @@
         <v>34</v>
       </c>
       <c r="Q16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>e</v>
       </c>
       <c r="Z16" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J16, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>d</v>
       </c>
       <c r="AC16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>d</v>
       </c>
       <c r="AD16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>e</v>
       </c>
       <c r="AE16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP16" t="str">
+        <f t="shared" si="14"/>
+        <v>BGR</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f t="shared" si="15"/>
+        <v>BGR</v>
+      </c>
+      <c r="AS16" t="str">
+        <f t="shared" si="17"/>
+        <v>B</v>
+      </c>
+      <c r="AT16" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="AU16" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="17" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -5561,90 +5975,115 @@
         <v>29</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(A17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(B17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(C17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="4"/>
         <v>l</v>
       </c>
       <c r="U17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(E17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="5"/>
         <v>e</v>
       </c>
       <c r="V17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(F17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="6"/>
         <v>t</v>
       </c>
       <c r="W17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(G17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="7"/>
         <v>u</v>
       </c>
       <c r="X17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(H17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="8"/>
         <v>e</v>
       </c>
       <c r="Y17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(I17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="9"/>
         <v>l</v>
       </c>
       <c r="Z17" s="2" t="str">
-        <f>IFERROR(VLOOKUP(J17, $N$1:$O$20, 2, FALSE), "")</f>
+        <f t="shared" si="10"/>
         <v>s</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AC17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>s</v>
       </c>
       <c r="AD17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>l</v>
       </c>
       <c r="AE17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>e</v>
       </c>
       <c r="AF17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>u</v>
       </c>
       <c r="AG17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>t</v>
       </c>
       <c r="AH17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>e</v>
       </c>
       <c r="AI17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>l</v>
       </c>
       <c r="AJ17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AK17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AL17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS17" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="AT17" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="AU17" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="18" spans="4:47" x14ac:dyDescent="0.25">
       <c r="M18" s="1">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
@@ -5655,8 +6094,34 @@
       <c r="O18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP18" t="str">
+        <f t="shared" si="14"/>
+        <v>GGR</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f t="shared" si="15"/>
+        <v>GGR</v>
+      </c>
+      <c r="AS18" t="str">
+        <f t="shared" si="17"/>
+        <v>G</v>
+      </c>
+      <c r="AT18" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="AU18" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="19" spans="4:47" x14ac:dyDescent="0.25">
       <c r="M19" s="1">
         <f t="shared" si="0"/>
         <v>6.097560975609756E-2</v>
@@ -5670,8 +6135,34 @@
       <c r="AA19" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP19" t="str">
+        <f t="shared" si="14"/>
+        <v>BBG</v>
+      </c>
+      <c r="AQ19" t="str">
+        <f t="shared" si="15"/>
+        <v>BBG</v>
+      </c>
+      <c r="AS19" t="str">
+        <f t="shared" si="17"/>
+        <v>B</v>
+      </c>
+      <c r="AT19" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="AU19" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="20" spans="4:47" x14ac:dyDescent="0.25">
       <c r="M20" s="1">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
@@ -5685,14 +6176,203 @@
       <c r="AA20" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="AN20">
+        <v>2</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP20" t="str">
+        <f t="shared" si="14"/>
+        <v>RBG</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f t="shared" si="15"/>
+        <v>RBG</v>
+      </c>
+      <c r="AS20" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="AT20" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="AU20" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="21" spans="4:47" x14ac:dyDescent="0.25">
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP21" t="str">
+        <f t="shared" si="14"/>
+        <v>GBG</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f t="shared" si="15"/>
+        <v>GBG</v>
+      </c>
+      <c r="AS21" t="str">
+        <f t="shared" si="17"/>
+        <v>G</v>
+      </c>
+      <c r="AT21" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="AU21" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="22" spans="4:47" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>22</v>
       </c>
       <c r="N22" t="e">
         <f>VLOOKUP("x", $L$1:$N$20, 3, FALSE )</f>
         <v>#N/A</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP22" t="str">
+        <f t="shared" si="14"/>
+        <v>BRG</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f t="shared" si="15"/>
+        <v>BRG</v>
+      </c>
+      <c r="AS22" t="str">
+        <f t="shared" si="17"/>
+        <v>B</v>
+      </c>
+      <c r="AT22" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="AU22" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="23" spans="4:47" x14ac:dyDescent="0.25">
+      <c r="AN23">
+        <v>2</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS23" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="AT23" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="AU23" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="24" spans="4:47" x14ac:dyDescent="0.25">
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP24" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS24" t="str">
+        <f t="shared" si="17"/>
+        <v>G</v>
+      </c>
+      <c r="AT24" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="AU24" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="25" spans="4:47" x14ac:dyDescent="0.25">
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP25" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS25" t="str">
+        <f t="shared" si="17"/>
+        <v>B</v>
+      </c>
+      <c r="AT25" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="AU25" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="26" spans="4:47" x14ac:dyDescent="0.25">
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP26" t="str">
+        <f t="shared" si="14"/>
+        <v>RGG</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f t="shared" ref="AQ26" si="18">AP26</f>
+        <v>RGG</v>
+      </c>
+      <c r="AS26" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="AT26" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="AU26" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
       </c>
     </row>
   </sheetData>
@@ -5742,7 +6422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>(K12=$N$22)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7576,47 +8256,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:M1 E2:M2 F3:M3 E4:M4 D5:M5 F6:M6 E7:M7 F8:M8 G12:M12 C16:M16 A18:M20 E9:N9 A13:N13 G10:N10 F11:N11 D17:N17 E14:N15">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>(A1=$M$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AJ17 P1:Y17">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Y17">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>(A1=$M$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
